--- a/biology/Botanique/Winston_(pomme)/Winston_(pomme).xlsx
+++ b/biology/Botanique/Winston_(pomme)/Winston_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Winston est un cultivar de pommier domestique créé dans le Berkshire (Angleterre) en 1920.
 </t>
@@ -511,12 +523,14 @@
           <t>Synonyme(s)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Winter King (en fait le premier nom qui lui est donné),
 Cox d'Hiver,
 Wintercheer.
-William Pope obtient le pommier en 1920 à Welford Park (Berkshire). Il est mis sur le marché en 1935 sous le nom de Winter King, renommé Winston en 1944[1].
+William Pope obtient le pommier en 1920 à Welford Park (Berkshire). Il est mis sur le marché en 1935 sous le nom de Winter King, renommé Winston en 1944.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une pomme à chair ferme, croquante, juteuse et sucrée.
 </t>
@@ -576,7 +592,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La pomme est issue du croisement Reinette Cox's Orange x Worcester Pearmain.</t>
         </is>
@@ -606,11 +624,13 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Variété diploïde donc, participante à la pollinisation croisée.
 Groupe de floraison: C-D.
-La variété est autofertile[2] mais sera encore mieux pollinisée en présence de Rajka, Grenadier, Ingrid Marie, Golden Delicious.
+La variété est autofertile mais sera encore mieux pollinisée en présence de Rajka, Grenadier, Ingrid Marie, Golden Delicious.
 </t>
         </is>
       </c>
@@ -639,9 +659,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Fructification: croissance de type spur[3]. L'arbre a besoin d'un bon éclaircissage pour ne pas donner de trop petits fruits.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Fructification: croissance de type spur. L'arbre a besoin d'un bon éclaircissage pour ne pas donner de trop petits fruits.
 L'arbre au port érigé (Type 1) est vigoureux et fertile.
 Maladies: peu susceptible à la tavelure, à l'oïdium et au chancre nectrien.
 Cueillette: les fruits arrivent à maturité très tard dans la saison (décembre) et se conservent bien.</t>
